--- a/src/main/resources/templates/MB_Template_2021.xlsx
+++ b/src/main/resources/templates/MB_Template_2021.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{60C9B3DE-65C5-4C82-A61E-958F31D6FC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A557C074-35A2-434C-BF6E-E1D2A8BCBA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19530" windowHeight="11820" activeTab="4" xr2:uid="{7D0F44A8-F3C9-4ED2-89D3-E9DDCCF8111C}"/>
+    <workbookView xWindow="1470" yWindow="690" windowWidth="19530" windowHeight="10920" xr2:uid="{7D0F44A8-F3C9-4ED2-89D3-E9DDCCF8111C}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="MBAG" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N12"/>
+  <oleSize ref="A1:N11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
   <si>
     <t>TS</t>
   </si>
@@ -63,27 +63,6 @@
     <t>wraper</t>
   </si>
   <si>
-    <t>Summary Of the Report</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Sub</t>
-  </si>
-  <si>
-    <t>totalrecords</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>No of Records</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -108,12 +87,6 @@
     <t>amont</t>
   </si>
   <si>
-    <t>MACND</t>
-  </si>
-  <si>
-    <t>MABLN</t>
-  </si>
-  <si>
     <t>someCol1</t>
   </si>
   <si>
@@ -132,10 +105,34 @@
     <t>someCol6</t>
   </si>
   <si>
-    <t>MANO</t>
-  </si>
-  <si>
-    <t>MATI</t>
+    <t>r</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>rty</t>
   </si>
 </sst>
 </file>
@@ -191,14 +188,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD04D98A-9843-404F-AFDA-277CB277DB6A}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,76 +521,79 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
+    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -613,37 +612,37 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -678,34 +677,34 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -726,37 +725,37 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -791,22 +790,22 @@
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -826,37 +825,37 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -891,25 +890,25 @@
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEA848D-7BDB-4C84-AF2F-08A4ABB5AB24}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -930,37 +929,37 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -995,19 +994,19 @@
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
